--- a/1HL_Neurons_Network_Results_TTS_V1.xlsx
+++ b/1HL_Neurons_Network_Results_TTS_V1.xlsx
@@ -490,31 +490,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7673236433585631</v>
+        <v>0.8780563075815091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6605759282149986</v>
+        <v>0.8211770384126476</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05238506920551855</v>
+        <v>0.03500188974219587</v>
       </c>
       <c r="E2" t="n">
-        <v>1.182271691152177</v>
+        <v>0.8581641944108287</v>
       </c>
       <c r="F2" t="n">
-        <v>1.434123676696768</v>
+        <v>1.039939166362241</v>
       </c>
       <c r="G2" t="n">
-        <v>1.143626040635932</v>
+        <v>1.118965601258558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8901519775390625</v>
+        <v>0.6148638725280762</v>
       </c>
       <c r="I2" t="n">
-        <v>1.113647818565369</v>
+        <v>0.7507386803627014</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9053964614868164</v>
+        <v>0.8114423155784607</v>
       </c>
     </row>
     <row r="3">
@@ -522,31 +522,31 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9595752174041363</v>
+        <v>0.8785868060763191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9498699398414514</v>
+        <v>0.8783302038501983</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6366539947368124</v>
+        <v>0.2411686616168608</v>
       </c>
       <c r="E3" t="n">
-        <v>0.49193989111196</v>
+        <v>0.8558919199645382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5564867308852082</v>
+        <v>0.8624322781720217</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7117716747583966</v>
+        <v>0.9549600103004527</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3726910054683685</v>
+        <v>0.6895627975463867</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4547389447689056</v>
+        <v>0.6771908402442932</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5371144413948059</v>
+        <v>0.7796181440353394</v>
       </c>
     </row>
     <row r="4">
@@ -554,31 +554,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9637946700127119</v>
+        <v>0.9215580205636975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.968146535597298</v>
+        <v>0.9301668717561519</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7477825800668204</v>
+        <v>0.6554572716845259</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4655678982892209</v>
+        <v>0.6888417675410485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4414768668882862</v>
+        <v>0.6583106295577983</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5932228107017005</v>
+        <v>0.6325112555938521</v>
       </c>
       <c r="H4" t="n">
-        <v>0.361917644739151</v>
+        <v>0.5666342377662659</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3371534049510956</v>
+        <v>0.5509703159332275</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4328819215297699</v>
+        <v>0.5388156175613403</v>
       </c>
     </row>
     <row r="5">
@@ -586,31 +586,31 @@
         <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9375023042176006</v>
+        <v>0.9410726080441771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9242565515192223</v>
+        <v>0.9513316537926078</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6515101093171574</v>
+        <v>0.6483600153233398</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6096157185401548</v>
+        <v>0.5959970718318258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6867321017446134</v>
+        <v>0.5501650887591595</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6712733835448714</v>
+        <v>0.672453963536893</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4932242929935455</v>
+        <v>0.4622968137264252</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5657033920288086</v>
+        <v>0.4246740639209747</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5367485284805298</v>
+        <v>0.5229560732841492</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9375625951587689</v>
+        <v>0.9126041321882764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.950570785175846</v>
+        <v>0.9074529131476018</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7800732976576589</v>
+        <v>0.6676674682239909</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6090345165073678</v>
+        <v>0.7196782793389407</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5503180429589961</v>
+        <v>0.7614852547398326</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5114782802113201</v>
+        <v>0.6566692784018627</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4889096915721893</v>
+        <v>0.535306453704834</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4548277854919434</v>
+        <v>0.5956257581710815</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4092077314853668</v>
+        <v>0.5191071629524231</v>
       </c>
     </row>
     <row r="7">
@@ -650,31 +650,31 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9347553497456247</v>
+        <v>0.9657288175921139</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9431100665277959</v>
+        <v>0.9492365684014613</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7187797038297496</v>
+        <v>0.6961730184220382</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6274339727414114</v>
+        <v>0.4521811454922255</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5939506643418579</v>
+        <v>0.5648037834326457</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5867911414784438</v>
+        <v>0.6144410119436035</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5065404772758484</v>
+        <v>0.3462259471416473</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4661539494991302</v>
+        <v>0.4618724286556244</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4992242455482483</v>
+        <v>0.5007470846176147</v>
       </c>
     </row>
     <row r="8">
@@ -682,31 +682,31 @@
         <v>40</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9380056293750222</v>
+        <v>0.9788583847664014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9491593058594928</v>
+        <v>0.9800649645958048</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7571067999180885</v>
+        <v>0.8337089874032415</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6081939157561728</v>
+        <v>0.3548564668070707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5622621669241565</v>
+        <v>0.3541184864744558</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5336187789654447</v>
+        <v>0.4515706731459196</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565336406230927</v>
+        <v>0.2726731598377228</v>
       </c>
       <c r="I8" t="n">
-        <v>0.454146146774292</v>
+        <v>0.2928332090377808</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4286905825138092</v>
+        <v>0.3574757277965546</v>
       </c>
     </row>
     <row r="9">
@@ -714,31 +714,31 @@
         <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9775654079657909</v>
+        <v>0.9724711302478424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9757054718186103</v>
+        <v>0.9819514601282874</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8188102633130441</v>
+        <v>0.8807183207573905</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3672273898270078</v>
+        <v>0.4065681458886788</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3915332154255027</v>
+        <v>0.3349161924498986</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4703962980117417</v>
+        <v>0.3820664278462195</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2800847589969635</v>
+        <v>0.3033231198787689</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2993075251579285</v>
+        <v>0.2644999027252197</v>
       </c>
       <c r="J9" t="n">
-        <v>0.370576947927475</v>
+        <v>0.3054771721363068</v>
       </c>
     </row>
     <row r="10">
@@ -746,31 +746,31 @@
         <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>0.916600675001406</v>
+        <v>0.9684585854815746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8936151924024613</v>
+        <v>0.9560042896210137</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4726222438129948</v>
+        <v>0.8034837543838916</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7091311048100002</v>
+        <v>0.43212873383427</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8131778163894798</v>
+        <v>0.5253749689088095</v>
       </c>
       <c r="G10" t="n">
-        <v>0.819480255838707</v>
+        <v>0.5077713876367836</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5561190247535706</v>
+        <v>0.3361215591430664</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6308532357215881</v>
+        <v>0.4200176000595093</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6364055275917053</v>
+        <v>0.3885409533977509</v>
       </c>
     </row>
     <row r="11">
@@ -778,31 +778,31 @@
         <v>55</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9327260070719704</v>
+        <v>0.8512260158524265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9065190280154954</v>
+        <v>0.8059980150867254</v>
       </c>
       <c r="D11" t="n">
-        <v>0.800627532832127</v>
+        <v>0.3575534048735948</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6317584831957405</v>
+        <v>0.9418279249530697</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7644159930786349</v>
+        <v>1.102380543506377</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4934284672263685</v>
+        <v>0.8702687346653568</v>
       </c>
       <c r="H11" t="n">
-        <v>0.513039231300354</v>
+        <v>0.7378883957862854</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6393371820449829</v>
+        <v>0.8202512264251709</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3884422183036804</v>
+        <v>0.771812915802002</v>
       </c>
     </row>
     <row r="12">
@@ -810,31 +810,31 @@
         <v>60</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9227612400187706</v>
+        <v>0.9589515153023211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9217689759324169</v>
+        <v>0.9696934819234301</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8434581560877445</v>
+        <v>0.8591465231321329</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6769640719700237</v>
+        <v>0.4956258234062907</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6997047099509537</v>
+        <v>0.4345865653781297</v>
       </c>
       <c r="G12" t="n">
-        <v>0.435726316976048</v>
+        <v>0.4072388571660232</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5152910351753235</v>
+        <v>0.3943912386894226</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5393745303153992</v>
+        <v>0.3668393790721893</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3364917635917664</v>
+        <v>0.3342346251010895</v>
       </c>
     </row>
     <row r="13">
@@ -842,31 +842,31 @@
         <v>65</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9350487147621643</v>
+        <v>0.9442806938002978</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9163775790369225</v>
+        <v>0.9495542709232007</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7238184060338086</v>
+        <v>0.8270625371334401</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6211076171094688</v>
+        <v>0.5752485733114006</v>
       </c>
       <c r="F13" t="n">
-        <v>0.721696866338163</v>
+        <v>0.5611378017247549</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5709390986628458</v>
+        <v>0.452215070325569</v>
       </c>
       <c r="H13" t="n">
-        <v>0.487031489610672</v>
+        <v>0.4528467953205109</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5926400423049927</v>
+        <v>0.4937735199928284</v>
       </c>
       <c r="J13" t="n">
-        <v>0.455741822719574</v>
+        <v>0.3488326370716095</v>
       </c>
     </row>
     <row r="14">
@@ -874,31 +874,31 @@
         <v>70</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9778278815212902</v>
+        <v>0.9714310863908888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9910833813267774</v>
+        <v>0.9693384127521714</v>
       </c>
       <c r="D14" t="n">
-        <v>0.874592996320101</v>
+        <v>0.7404076451728057</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3622808114382082</v>
+        <v>0.4145799498523813</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2336937620089658</v>
+        <v>0.437088278771864</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3912269150989284</v>
+        <v>0.5656210356515456</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2929464876651764</v>
+        <v>0.3282952606678009</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1859804391860962</v>
+        <v>0.3545961380004883</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3075955808162689</v>
+        <v>0.4359610080718994</v>
       </c>
     </row>
     <row r="15">
@@ -906,31 +906,31 @@
         <v>75</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9773883989970894</v>
+        <v>0.9769674607447342</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9790327240473616</v>
+        <v>0.9785127820139372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8482391513990433</v>
+        <v>0.8214450370539652</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3670670940943725</v>
+        <v>0.3702694622413558</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3649192715557889</v>
+        <v>0.3682296451671608</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4189493850474494</v>
+        <v>0.4646768831426799</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2807980179786682</v>
+        <v>0.2831268012523651</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2941970527172089</v>
+        <v>0.2877336442470551</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3236111700534821</v>
+        <v>0.3611906468868256</v>
       </c>
     </row>
     <row r="16">
@@ -938,31 +938,31 @@
         <v>80</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9588431500267497</v>
+        <v>0.8780001302340364</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9847884018825288</v>
+        <v>0.8607167892731251</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7912529251822661</v>
+        <v>0.6909741456596726</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4970160194229191</v>
+        <v>0.8528017598472172</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3053795706289412</v>
+        <v>0.9296028355106272</v>
       </c>
       <c r="G16" t="n">
-        <v>0.497178865881661</v>
+        <v>0.6122863620771859</v>
       </c>
       <c r="H16" t="n">
-        <v>0.42757248878479</v>
+        <v>0.6566897630691528</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2548483610153198</v>
+        <v>0.7783944010734558</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4178865253925323</v>
+        <v>0.5017816424369812</v>
       </c>
     </row>
   </sheetData>
